--- a/knearest/StandardizedExcelSheet.xlsx
+++ b/knearest/StandardizedExcelSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="13100" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Project.ID</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Needs.Work</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Stddev</t>
   </si>
 </sst>
 </file>
@@ -458,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7138,94 +7132,6 @@
       </c>
       <c r="O142">
         <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143">
-        <v>0.21276595744680901</v>
-      </c>
-      <c r="C143">
-        <v>6.3829787234042507E-2</v>
-      </c>
-      <c r="D143">
-        <v>1983.5744680851101</v>
-      </c>
-      <c r="E143">
-        <v>674.60992907801403</v>
-      </c>
-      <c r="F143">
-        <v>674.468085106383</v>
-      </c>
-      <c r="G143">
-        <v>3.3857446808510598</v>
-      </c>
-      <c r="H143">
-        <v>3.6595744680851099</v>
-      </c>
-      <c r="I143">
-        <v>7.5248226950354598</v>
-      </c>
-      <c r="J143">
-        <v>10.9787234042553</v>
-      </c>
-      <c r="K143">
-        <v>5.5460992907801403</v>
-      </c>
-      <c r="L143">
-        <v>16.6666666666667</v>
-      </c>
-      <c r="M143">
-        <v>33.078014184397198</v>
-      </c>
-      <c r="N143">
-        <v>15.489361702127701</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144">
-        <v>0.41072254517927398</v>
-      </c>
-      <c r="C144">
-        <v>0.245320954711718</v>
-      </c>
-      <c r="D144">
-        <v>0.96535739165193202</v>
-      </c>
-      <c r="E144">
-        <v>81.910384223042001</v>
-      </c>
-      <c r="F144">
-        <v>75.7007787458991</v>
-      </c>
-      <c r="G144">
-        <v>0.34676512026473899</v>
-      </c>
-      <c r="H144">
-        <v>0.76372945129282299</v>
-      </c>
-      <c r="I144">
-        <v>10.2675505218303</v>
-      </c>
-      <c r="J144">
-        <v>11.717184013909</v>
-      </c>
-      <c r="K144">
-        <v>15.2477048283644</v>
-      </c>
-      <c r="L144">
-        <v>25.042725395573399</v>
-      </c>
-      <c r="M144">
-        <v>35.607397089045101</v>
-      </c>
-      <c r="N144">
-        <v>8.4596665091957703</v>
       </c>
     </row>
   </sheetData>
